--- a/multitable.xlsx
+++ b/multitable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">"three"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foo</t>
   </si>
   <si>
     <t xml:space="preserve">Hello World</t>
@@ -53,8 +56,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="166" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -122,8 +127,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -144,15 +157,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:G13"/>
+  <dimension ref="B3:AC18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="1.71"/>
@@ -191,7 +205,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
       <c r="F7" s="0" t="s">
         <v>1</v>
       </c>
@@ -199,7 +214,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="n">
+        <v>0.504409722222222</v>
+      </c>
       <c r="F8" s="0" t="s">
         <v>3</v>
       </c>
@@ -223,9 +241,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,6 +260,7 @@
         <v>26.74</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/multitable.xlsx
+++ b/multitable.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wb1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="wb2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -50,6 +51,24 @@
   </si>
   <si>
     <t xml:space="preserve">Hello World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// For whatever reason the first date is in MM/DD/YY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/07/1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// So is this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/01/2038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// This is a string</t>
   </si>
 </sst>
 </file>
@@ -127,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -138,6 +157,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -159,8 +182,8 @@
   </sheetPr>
   <dimension ref="B3:AC18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,6 +283,23 @@
         <v>26.74</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -270,4 +310,69 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="n">
+        <v>43586</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>31595</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/multitable.xlsx
+++ b/multitable.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="wb1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="wb2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -75,10 +76,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -146,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -161,6 +163,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -319,7 +325,7 @@
   </sheetPr>
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -375,4 +381,36 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/multitable.xlsx
+++ b/multitable.xlsx
@@ -78,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="166" formatCode="HH:MM:SS\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -182,24 +182,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B3:AC18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,6 +285,12 @@
       <c r="F13" s="0" t="n">
         <f aca="false">E13*2</f>
         <v>26.74</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="n">
+        <f aca="false">-E13*2</f>
+        <v>-26.74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,7 +323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -329,10 +333,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="n">
@@ -384,7 +385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -394,13 +395,11 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="b">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
